--- a/mainApp/data/basePlanAccion.xlsx
+++ b/mainApp/data/basePlanAccion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belen\Documents\MAIN\SIPTE\mainApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C0E15-0891-4607-A006-F7718729B5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A316E46-AD4A-4153-8765-3C6258A7F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,12 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,7 +508,7 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,10 +556,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -644,13 +638,13 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -674,10 +668,10 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
@@ -734,10 +728,10 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -804,15 +798,13 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -826,23 +818,15 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -856,23 +840,15 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -886,23 +862,15 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -916,23 +884,15 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -946,23 +906,15 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -976,23 +928,15 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1006,23 +950,15 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1036,23 +972,15 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1066,21 +994,15 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
